--- a/fcl.xlsx
+++ b/fcl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facun\OneDrive\Documentos\GitHub\liftvan_ypf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE359B3-D37F-4D98-9146-A6DB0E8E0011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F6E57E-CB6D-44B2-8E20-FF84EBD96E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6090" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,10 +939,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1950</v>
+        <v>1370</v>
       </c>
       <c r="C2">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,10 +950,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2350</v>
+        <v>1770</v>
       </c>
       <c r="C3">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,10 +961,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2150</v>
+        <v>1570</v>
       </c>
       <c r="C4">
-        <v>2400</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,10 +972,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4850</v>
+        <v>4270</v>
       </c>
       <c r="C5">
-        <v>6200</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,10 +983,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2250</v>
+        <v>1670</v>
       </c>
       <c r="C6">
-        <v>2650</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2950</v>
+        <v>2370</v>
       </c>
       <c r="C7">
-        <v>3450</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,10 +1005,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>2250</v>
+        <v>1670</v>
       </c>
       <c r="C8">
-        <v>2850</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,10 +1016,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2550</v>
+        <v>1970</v>
       </c>
       <c r="C9">
-        <v>2850</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>2300</v>
+        <v>1720</v>
       </c>
       <c r="C10">
-        <v>2550</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2300</v>
+        <v>1720</v>
       </c>
       <c r="C11">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,10 +1049,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>4550</v>
+        <v>3970</v>
       </c>
       <c r="C12">
-        <v>5700</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1060,10 +1060,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5050</v>
+        <v>4470</v>
       </c>
       <c r="C13">
-        <v>7250</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1071,10 +1071,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4250</v>
+        <v>3670</v>
       </c>
       <c r="C14">
-        <v>4750</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,10 +1082,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1900</v>
+        <v>1320</v>
       </c>
       <c r="C15">
-        <v>2150</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1093,10 +1093,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>6150</v>
+        <v>5570</v>
       </c>
       <c r="C16">
-        <v>6500</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,10 +1104,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5200</v>
+        <v>4620</v>
       </c>
       <c r="C17">
-        <v>5800</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,10 +1115,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2200</v>
+        <v>1620</v>
       </c>
       <c r="C18">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,10 +1126,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2400</v>
+        <v>1820</v>
       </c>
       <c r="C19">
-        <v>2200</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1137,10 +1137,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5500</v>
+        <v>4920</v>
       </c>
       <c r="C20">
-        <v>5700</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3200</v>
+        <v>2620</v>
       </c>
       <c r="C21">
-        <v>3700</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3450</v>
+        <v>2870</v>
       </c>
       <c r="C22">
-        <v>3850</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,10 +1170,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>5250</v>
+        <v>4670</v>
       </c>
       <c r="C23">
-        <v>5750</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>5200</v>
+        <v>4620</v>
       </c>
       <c r="C24">
-        <v>6250</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1192,10 +1192,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2300</v>
+        <v>1720</v>
       </c>
       <c r="C25">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1203,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2600</v>
+        <v>2020</v>
       </c>
       <c r="C26">
-        <v>3200</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,10 +1214,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3000</v>
+        <v>2420</v>
       </c>
       <c r="C27">
-        <v>3450</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,10 +1225,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3050</v>
+        <v>2470</v>
       </c>
       <c r="C28">
-        <v>4450</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1236,7 +1236,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>4000</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,10 +1244,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2150</v>
+        <v>1570</v>
       </c>
       <c r="C30">
-        <v>2300</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,10 +1255,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>6400</v>
+        <v>5820</v>
       </c>
       <c r="C31">
-        <v>8100</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6850</v>
+        <v>6270</v>
       </c>
       <c r="C32">
-        <v>7500</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,10 +1277,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3850</v>
+        <v>3270</v>
       </c>
       <c r="C33">
-        <v>4450</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,10 +1288,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4850</v>
+        <v>4270</v>
       </c>
       <c r="C34">
-        <v>5600</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,10 +1299,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3600</v>
+        <v>3020</v>
       </c>
       <c r="C35">
-        <v>4100</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,10 +1310,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2400</v>
+        <v>1820</v>
       </c>
       <c r="C36">
-        <v>3050</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,10 +1321,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3750</v>
+        <v>3170</v>
       </c>
       <c r="C37">
-        <v>4250</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,10 +1332,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5200</v>
+        <v>4620</v>
       </c>
       <c r="C38">
-        <v>5550</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,10 +1343,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6200</v>
+        <v>5620</v>
       </c>
       <c r="C39">
-        <v>6450</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,10 +1354,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6250</v>
+        <v>5670</v>
       </c>
       <c r="C40">
-        <v>7000</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,10 +1365,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6900</v>
+        <v>6320</v>
       </c>
       <c r="C41">
-        <v>7150</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,10 +1376,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6450</v>
+        <v>5870</v>
       </c>
       <c r="C42">
-        <v>7150</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>3600</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <v>2700</v>
+        <v>2120</v>
       </c>
       <c r="C44">
-        <v>3950</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,10 +1406,10 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <v>3350</v>
+        <v>2770</v>
       </c>
       <c r="C45">
-        <v>4500</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,10 +1417,10 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>5450</v>
+        <v>4870</v>
       </c>
       <c r="C46">
-        <v>5900</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,10 +1428,10 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <v>5150</v>
+        <v>4570</v>
       </c>
       <c r="C47">
-        <v>6000</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,10 +1439,10 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <v>6850</v>
+        <v>6270</v>
       </c>
       <c r="C48">
-        <v>7400</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,10 +1450,10 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <v>7800</v>
+        <v>7220</v>
       </c>
       <c r="C49">
-        <v>8150</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,10 +1461,10 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>2900</v>
+        <v>2320</v>
       </c>
       <c r="C50">
-        <v>2750</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,10 +1472,10 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <v>3100</v>
+        <v>2520</v>
       </c>
       <c r="C51">
-        <v>2800</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,10 +1483,10 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <v>2400</v>
+        <v>1820</v>
       </c>
       <c r="C52">
-        <v>2900</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,10 +1494,10 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <v>2800</v>
+        <v>2220</v>
       </c>
       <c r="C53">
-        <v>2900</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,10 +1505,10 @@
         <v>51</v>
       </c>
       <c r="B54">
-        <v>7000</v>
+        <v>6420</v>
       </c>
       <c r="C54">
-        <v>8000</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,10 +1516,10 @@
         <v>52</v>
       </c>
       <c r="B55">
-        <v>3700</v>
+        <v>3120</v>
       </c>
       <c r="C55">
-        <v>4000</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,10 +1527,10 @@
         <v>53</v>
       </c>
       <c r="B56">
-        <v>3350</v>
+        <v>2770</v>
       </c>
       <c r="C56">
-        <v>4400</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,10 +1538,10 @@
         <v>53</v>
       </c>
       <c r="B57">
-        <v>4000</v>
+        <v>3420</v>
       </c>
       <c r="C57">
-        <v>5100</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,10 +1549,10 @@
         <v>54</v>
       </c>
       <c r="B58">
-        <v>2650</v>
+        <v>2070</v>
       </c>
       <c r="C58">
-        <v>3250</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,10 +1560,10 @@
         <v>55</v>
       </c>
       <c r="B59">
-        <v>2650</v>
+        <v>2070</v>
       </c>
       <c r="C59">
-        <v>3100</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,10 +1571,10 @@
         <v>56</v>
       </c>
       <c r="B60">
-        <v>2050</v>
+        <v>1470</v>
       </c>
       <c r="C60">
-        <v>2550</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,10 +1582,10 @@
         <v>57</v>
       </c>
       <c r="B61">
-        <v>2350</v>
+        <v>1770</v>
       </c>
       <c r="C61">
-        <v>2900</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,10 +1593,10 @@
         <v>58</v>
       </c>
       <c r="B62">
-        <v>4650</v>
+        <v>4070</v>
       </c>
       <c r="C62">
-        <v>5250</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,10 +1604,10 @@
         <v>59</v>
       </c>
       <c r="B63">
-        <v>2150</v>
+        <v>1570</v>
       </c>
       <c r="C63">
-        <v>2750</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,10 +1615,10 @@
         <v>59</v>
       </c>
       <c r="B64">
-        <v>2250</v>
+        <v>1670</v>
       </c>
       <c r="C64">
-        <v>2750</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,10 +1626,10 @@
         <v>60</v>
       </c>
       <c r="B65">
-        <v>4800</v>
+        <v>4220</v>
       </c>
       <c r="C65">
-        <v>6050</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,10 +1637,10 @@
         <v>61</v>
       </c>
       <c r="B66">
-        <v>2400</v>
+        <v>1820</v>
       </c>
       <c r="C66">
-        <v>2850</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,10 +1648,10 @@
         <v>62</v>
       </c>
       <c r="B67">
-        <v>3950</v>
+        <v>3370</v>
       </c>
       <c r="C67">
-        <v>4450</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,10 +1659,10 @@
         <v>63</v>
       </c>
       <c r="B68">
-        <v>1900</v>
+        <v>1320</v>
       </c>
       <c r="C68">
-        <v>2450</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,10 +1670,10 @@
         <v>64</v>
       </c>
       <c r="B69">
-        <v>2350</v>
+        <v>1770</v>
       </c>
       <c r="C69">
-        <v>2600</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,10 +1681,10 @@
         <v>65</v>
       </c>
       <c r="B70">
-        <v>5100</v>
+        <v>4520</v>
       </c>
       <c r="C70">
-        <v>7300</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1692,10 +1692,10 @@
         <v>66</v>
       </c>
       <c r="B71">
-        <v>1900</v>
+        <v>1320</v>
       </c>
       <c r="C71">
-        <v>2100</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1703,10 +1703,10 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>4700</v>
+        <v>4120</v>
       </c>
       <c r="C72">
-        <v>5100</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,10 +1714,10 @@
         <v>68</v>
       </c>
       <c r="B73">
-        <v>3050</v>
+        <v>2470</v>
       </c>
       <c r="C73">
-        <v>3950</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,10 +1725,10 @@
         <v>69</v>
       </c>
       <c r="B74">
-        <v>1700</v>
+        <v>1120</v>
       </c>
       <c r="C74">
-        <v>2000</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,10 +1736,10 @@
         <v>70</v>
       </c>
       <c r="B75">
-        <v>2400</v>
+        <v>1820</v>
       </c>
       <c r="C75">
-        <v>2750</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,10 +1747,10 @@
         <v>71</v>
       </c>
       <c r="B76">
-        <v>1650</v>
+        <v>1070</v>
       </c>
       <c r="C76">
-        <v>2000</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,10 +1758,10 @@
         <v>72</v>
       </c>
       <c r="B77">
-        <v>1800</v>
+        <v>1220</v>
       </c>
       <c r="C77">
-        <v>2150</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,10 +1769,10 @@
         <v>73</v>
       </c>
       <c r="B78">
-        <v>5800</v>
+        <v>5220</v>
       </c>
       <c r="C78">
-        <v>6000</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,10 +1780,10 @@
         <v>74</v>
       </c>
       <c r="B79">
-        <v>2150</v>
+        <v>1570</v>
       </c>
       <c r="C79">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,10 +1791,10 @@
         <v>75</v>
       </c>
       <c r="B80">
-        <v>2600</v>
+        <v>2020</v>
       </c>
       <c r="C80">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1802,10 +1802,10 @@
         <v>75</v>
       </c>
       <c r="B81">
-        <v>2900</v>
+        <v>2320</v>
       </c>
       <c r="C81">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1813,10 +1813,10 @@
         <v>76</v>
       </c>
       <c r="B82">
-        <v>2900</v>
+        <v>2320</v>
       </c>
       <c r="C82">
-        <v>2750</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1824,10 +1824,10 @@
         <v>77</v>
       </c>
       <c r="B83">
-        <v>3100</v>
+        <v>2520</v>
       </c>
       <c r="C83">
-        <v>3650</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1835,10 +1835,10 @@
         <v>78</v>
       </c>
       <c r="B84">
-        <v>7150</v>
+        <v>6570</v>
       </c>
       <c r="C84">
-        <v>7350</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1846,10 +1846,10 @@
         <v>79</v>
       </c>
       <c r="B85">
-        <v>2900</v>
+        <v>2320</v>
       </c>
       <c r="C85">
-        <v>3650</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,10 +1857,10 @@
         <v>80</v>
       </c>
       <c r="B86">
-        <v>2200</v>
+        <v>1620</v>
       </c>
       <c r="C86">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,10 +1868,10 @@
         <v>81</v>
       </c>
       <c r="B87">
-        <v>2100</v>
+        <v>1520</v>
       </c>
       <c r="C87">
-        <v>2350</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,10 +1879,10 @@
         <v>82</v>
       </c>
       <c r="B88">
-        <v>2550</v>
+        <v>1970</v>
       </c>
       <c r="C88">
-        <v>2850</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,10 +1890,10 @@
         <v>83</v>
       </c>
       <c r="B89">
-        <v>4850</v>
+        <v>4270</v>
       </c>
       <c r="C89">
-        <v>5600</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,10 +1901,10 @@
         <v>84</v>
       </c>
       <c r="B90">
-        <v>2800</v>
+        <v>2220</v>
       </c>
       <c r="C90">
-        <v>3300</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1912,10 +1912,10 @@
         <v>85</v>
       </c>
       <c r="B91">
-        <v>4650</v>
+        <v>4070</v>
       </c>
       <c r="C91">
-        <v>5150</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1923,10 +1923,10 @@
         <v>86</v>
       </c>
       <c r="B92">
-        <v>2100</v>
+        <v>1520</v>
       </c>
       <c r="C92">
-        <v>2550</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1934,10 +1934,10 @@
         <v>87</v>
       </c>
       <c r="B93">
-        <v>2550</v>
+        <v>1970</v>
       </c>
       <c r="C93">
-        <v>2750</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,10 +1945,10 @@
         <v>88</v>
       </c>
       <c r="B94">
-        <v>2000</v>
+        <v>1420</v>
       </c>
       <c r="C94">
-        <v>2600</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,10 +1956,10 @@
         <v>89</v>
       </c>
       <c r="B95">
-        <v>2550</v>
+        <v>1970</v>
       </c>
       <c r="C95">
-        <v>3000</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1967,10 +1967,10 @@
         <v>90</v>
       </c>
       <c r="B96">
-        <v>5900</v>
+        <v>5320</v>
       </c>
       <c r="C96">
-        <v>7500</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,10 +1978,10 @@
         <v>91</v>
       </c>
       <c r="B97">
-        <v>4800</v>
+        <v>4220</v>
       </c>
       <c r="C97">
-        <v>5000</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1989,10 +1989,10 @@
         <v>92</v>
       </c>
       <c r="B98">
-        <v>7400</v>
+        <v>6820</v>
       </c>
       <c r="C98">
-        <v>7750</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,10 +2000,10 @@
         <v>93</v>
       </c>
       <c r="B99">
-        <v>6300</v>
+        <v>5720</v>
       </c>
       <c r="C99">
-        <v>6900</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2011,10 +2011,10 @@
         <v>94</v>
       </c>
       <c r="B100">
-        <v>4750</v>
+        <v>4170</v>
       </c>
       <c r="C100">
-        <v>5700</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2022,10 +2022,10 @@
         <v>95</v>
       </c>
       <c r="B101">
-        <v>2900</v>
+        <v>2320</v>
       </c>
       <c r="C101">
-        <v>3050</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2033,10 +2033,10 @@
         <v>96</v>
       </c>
       <c r="B102">
-        <v>3050</v>
+        <v>2470</v>
       </c>
       <c r="C102">
-        <v>3350</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2044,10 +2044,10 @@
         <v>97</v>
       </c>
       <c r="B103">
-        <v>2400</v>
+        <v>1820</v>
       </c>
       <c r="C103">
-        <v>2800</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,10 +2055,10 @@
         <v>98</v>
       </c>
       <c r="B104">
-        <v>6000</v>
+        <v>5420</v>
       </c>
       <c r="C104">
-        <v>7600</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2066,10 +2066,10 @@
         <v>99</v>
       </c>
       <c r="B105">
-        <v>3400</v>
+        <v>2820</v>
       </c>
       <c r="C105">
-        <v>3900</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2077,10 +2077,10 @@
         <v>100</v>
       </c>
       <c r="B106">
-        <v>2200</v>
+        <v>1620</v>
       </c>
       <c r="C106">
-        <v>2400</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2088,10 +2088,10 @@
         <v>101</v>
       </c>
       <c r="B107">
-        <v>3750</v>
+        <v>3170</v>
       </c>
       <c r="C107">
-        <v>4250</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2099,10 +2099,10 @@
         <v>102</v>
       </c>
       <c r="B108">
-        <v>2350</v>
+        <v>1770</v>
       </c>
       <c r="C108">
-        <v>2450</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,10 +2110,10 @@
         <v>103</v>
       </c>
       <c r="B109">
-        <v>4550</v>
+        <v>3970</v>
       </c>
       <c r="C109">
-        <v>5200</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,10 +2121,10 @@
         <v>104</v>
       </c>
       <c r="B110">
-        <v>4750</v>
+        <v>4170</v>
       </c>
       <c r="C110">
-        <v>5000</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,10 +2132,10 @@
         <v>105</v>
       </c>
       <c r="B111">
-        <v>7500</v>
+        <v>6920</v>
       </c>
       <c r="C111">
-        <v>7850</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,10 +2143,10 @@
         <v>106</v>
       </c>
       <c r="B112">
-        <v>1900</v>
+        <v>1320</v>
       </c>
       <c r="C112">
-        <v>2200</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,10 +2154,10 @@
         <v>107</v>
       </c>
       <c r="B113">
-        <v>2800</v>
+        <v>2220</v>
       </c>
       <c r="C113">
-        <v>3350</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,10 +2165,10 @@
         <v>107</v>
       </c>
       <c r="B114">
-        <v>2350</v>
+        <v>1770</v>
       </c>
       <c r="C114">
-        <v>3200</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,10 +2176,10 @@
         <v>108</v>
       </c>
       <c r="B115">
-        <v>6250</v>
+        <v>5670</v>
       </c>
       <c r="C115">
-        <v>6650</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,10 +2187,10 @@
         <v>109</v>
       </c>
       <c r="B116">
-        <v>3200</v>
+        <v>2620</v>
       </c>
       <c r="C116">
-        <v>2900</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,10 +2198,10 @@
         <v>110</v>
       </c>
       <c r="B117">
-        <v>2300</v>
+        <v>1720</v>
       </c>
       <c r="C117">
-        <v>2600</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,10 +2209,10 @@
         <v>111</v>
       </c>
       <c r="B118">
-        <v>1650</v>
+        <v>1070</v>
       </c>
       <c r="C118">
-        <v>2000</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,10 +2220,10 @@
         <v>112</v>
       </c>
       <c r="B119">
-        <v>3700</v>
+        <v>3120</v>
       </c>
       <c r="C119">
-        <v>5450</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,10 +2231,10 @@
         <v>113</v>
       </c>
       <c r="B120">
-        <v>4700</v>
+        <v>4120</v>
       </c>
       <c r="C120">
-        <v>5000</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,10 +2242,10 @@
         <v>114</v>
       </c>
       <c r="B121">
-        <v>5250</v>
+        <v>4670</v>
       </c>
       <c r="C121">
-        <v>5800</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,10 +2253,10 @@
         <v>115</v>
       </c>
       <c r="B122">
-        <v>2850</v>
+        <v>2270</v>
       </c>
       <c r="C122">
-        <v>5450</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2264,10 +2264,10 @@
         <v>116</v>
       </c>
       <c r="B123">
-        <v>5800</v>
+        <v>5220</v>
       </c>
       <c r="C123">
-        <v>6000</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2275,10 +2275,10 @@
         <v>117</v>
       </c>
       <c r="B124">
-        <v>6300</v>
+        <v>5720</v>
       </c>
       <c r="C124">
-        <v>6750</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2286,10 +2286,10 @@
         <v>118</v>
       </c>
       <c r="B125">
-        <v>3300</v>
+        <v>2720</v>
       </c>
       <c r="C125">
-        <v>3950</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2297,10 +2297,10 @@
         <v>119</v>
       </c>
       <c r="B126">
-        <v>4200</v>
+        <v>3620</v>
       </c>
       <c r="C126">
-        <v>4700</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2308,10 +2308,10 @@
         <v>120</v>
       </c>
       <c r="B127">
-        <v>2700</v>
+        <v>2120</v>
       </c>
       <c r="C127">
-        <v>2950</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2319,10 +2319,10 @@
         <v>121</v>
       </c>
       <c r="B128">
-        <v>2150</v>
+        <v>1570</v>
       </c>
       <c r="C128">
-        <v>2550</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,10 +2330,10 @@
         <v>122</v>
       </c>
       <c r="B129">
-        <v>5100</v>
+        <v>4520</v>
       </c>
       <c r="C129">
-        <v>5450</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,10 +2341,10 @@
         <v>123</v>
       </c>
       <c r="B130">
-        <v>6550</v>
+        <v>5970</v>
       </c>
       <c r="C130">
-        <v>6800</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,10 +2352,10 @@
         <v>124</v>
       </c>
       <c r="B131">
-        <v>2300</v>
+        <v>1720</v>
       </c>
       <c r="C131">
-        <v>2750</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2363,10 +2363,10 @@
         <v>125</v>
       </c>
       <c r="B132">
-        <v>5900</v>
+        <v>5320</v>
       </c>
       <c r="C132">
-        <v>6750</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,10 +2374,10 @@
         <v>126</v>
       </c>
       <c r="B133">
-        <v>5000</v>
+        <v>4420</v>
       </c>
       <c r="C133">
-        <v>5400</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,10 +2385,10 @@
         <v>127</v>
       </c>
       <c r="B134">
-        <v>5000</v>
+        <v>4420</v>
       </c>
       <c r="C134">
-        <v>5400</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,10 +2396,10 @@
         <v>128</v>
       </c>
       <c r="B135">
-        <v>2300</v>
+        <v>1720</v>
       </c>
       <c r="C135">
-        <v>2550</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,10 +2407,10 @@
         <v>129</v>
       </c>
       <c r="B136">
-        <v>3100</v>
+        <v>2520</v>
       </c>
       <c r="C136">
-        <v>3600</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,10 +2418,10 @@
         <v>130</v>
       </c>
       <c r="B137">
-        <v>4400</v>
+        <v>3820</v>
       </c>
       <c r="C137">
-        <v>4950</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,10 +2429,10 @@
         <v>131</v>
       </c>
       <c r="B138">
-        <v>3800</v>
+        <v>3220</v>
       </c>
       <c r="C138">
-        <v>4300</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,10 +2440,10 @@
         <v>132</v>
       </c>
       <c r="B139">
-        <v>4950</v>
+        <v>4370</v>
       </c>
       <c r="C139">
-        <v>5450</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,10 +2451,10 @@
         <v>133</v>
       </c>
       <c r="B140">
-        <v>5000</v>
+        <v>4420</v>
       </c>
       <c r="C140">
-        <v>6150</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,10 +2462,10 @@
         <v>134</v>
       </c>
       <c r="B141">
-        <v>2400</v>
+        <v>1820</v>
       </c>
       <c r="C141">
-        <v>3950</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,10 +2473,10 @@
         <v>135</v>
       </c>
       <c r="B142">
-        <v>7150</v>
+        <v>6570</v>
       </c>
       <c r="C142">
-        <v>8350</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,10 +2484,10 @@
         <v>136</v>
       </c>
       <c r="B143">
-        <v>2000</v>
+        <v>1420</v>
       </c>
       <c r="C143">
-        <v>2250</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2495,10 +2495,10 @@
         <v>137</v>
       </c>
       <c r="B144">
-        <v>1650</v>
+        <v>1070</v>
       </c>
       <c r="C144">
-        <v>1950</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,10 +2506,10 @@
         <v>138</v>
       </c>
       <c r="B145">
-        <v>3900</v>
+        <v>3320</v>
       </c>
       <c r="C145">
-        <v>4400</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,10 +2517,10 @@
         <v>139</v>
       </c>
       <c r="B146">
-        <v>3250</v>
+        <v>2670</v>
       </c>
       <c r="C146">
-        <v>3450</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,10 +2528,10 @@
         <v>140</v>
       </c>
       <c r="B147">
-        <v>2250</v>
+        <v>1670</v>
       </c>
       <c r="C147">
-        <v>2300</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,10 +2539,10 @@
         <v>141</v>
       </c>
       <c r="B148">
-        <v>7050</v>
+        <v>6470</v>
       </c>
       <c r="C148">
-        <v>7500</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2550,10 +2550,10 @@
         <v>142</v>
       </c>
       <c r="B149">
-        <v>2300</v>
+        <v>1720</v>
       </c>
       <c r="C149">
-        <v>2500</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2561,10 +2561,10 @@
         <v>143</v>
       </c>
       <c r="B150">
-        <v>3950</v>
+        <v>3370</v>
       </c>
       <c r="C150">
-        <v>4500</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,10 +2572,10 @@
         <v>144</v>
       </c>
       <c r="B151">
-        <v>4400</v>
+        <v>3820</v>
       </c>
       <c r="C151">
-        <v>5000</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2583,10 +2583,10 @@
         <v>145</v>
       </c>
       <c r="B152">
-        <v>4400</v>
+        <v>3820</v>
       </c>
       <c r="C152">
-        <v>5000</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2594,10 +2594,10 @@
         <v>146</v>
       </c>
       <c r="B153">
-        <v>4700</v>
+        <v>4120</v>
       </c>
       <c r="C153">
-        <v>5200</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2605,10 +2605,10 @@
         <v>147</v>
       </c>
       <c r="B154">
-        <v>4000</v>
+        <v>3420</v>
       </c>
       <c r="C154">
-        <v>4400</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2616,10 +2616,10 @@
         <v>148</v>
       </c>
       <c r="B155">
-        <v>1650</v>
+        <v>1070</v>
       </c>
       <c r="C155">
-        <v>1900</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,10 +2627,10 @@
         <v>149</v>
       </c>
       <c r="B156">
-        <v>7200</v>
+        <v>6620</v>
       </c>
       <c r="C156">
-        <v>8350</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,10 +2638,10 @@
         <v>150</v>
       </c>
       <c r="B157">
-        <v>5000</v>
+        <v>4420</v>
       </c>
       <c r="C157">
-        <v>5400</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2649,10 +2649,10 @@
         <v>151</v>
       </c>
       <c r="B158">
-        <v>5550</v>
+        <v>4970</v>
       </c>
       <c r="C158">
-        <v>7100</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,10 +2660,10 @@
         <v>152</v>
       </c>
       <c r="B159">
-        <v>2200</v>
+        <v>1620</v>
       </c>
       <c r="C159">
-        <v>2400</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,10 +2671,10 @@
         <v>153</v>
       </c>
       <c r="B160">
-        <v>5200</v>
+        <v>4620</v>
       </c>
       <c r="C160">
-        <v>6750</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,10 +2682,10 @@
         <v>154</v>
       </c>
       <c r="B161">
-        <v>2800</v>
+        <v>2220</v>
       </c>
       <c r="C161">
-        <v>2850</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,10 +2693,10 @@
         <v>155</v>
       </c>
       <c r="B162">
-        <v>1850</v>
+        <v>1270</v>
       </c>
       <c r="C162">
-        <v>2100</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,10 +2704,10 @@
         <v>156</v>
       </c>
       <c r="B163">
-        <v>3400</v>
+        <v>2820</v>
       </c>
       <c r="C163">
-        <v>4600</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,10 +2715,10 @@
         <v>157</v>
       </c>
       <c r="B164">
-        <v>2000</v>
+        <v>1420</v>
       </c>
       <c r="C164">
-        <v>2500</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,10 +2726,10 @@
         <v>158</v>
       </c>
       <c r="B165">
-        <v>2550</v>
+        <v>1970</v>
       </c>
       <c r="C165">
-        <v>2900</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,10 +2737,10 @@
         <v>159</v>
       </c>
       <c r="B166">
-        <v>2100</v>
+        <v>1520</v>
       </c>
       <c r="C166">
-        <v>2270</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,10 +2748,10 @@
         <v>160</v>
       </c>
       <c r="B167">
-        <v>2350</v>
+        <v>1770</v>
       </c>
       <c r="C167">
-        <v>2450</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,10 +2759,10 @@
         <v>161</v>
       </c>
       <c r="B168">
-        <v>9350</v>
+        <v>8770</v>
       </c>
       <c r="C168">
-        <v>9950</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,10 +2770,10 @@
         <v>162</v>
       </c>
       <c r="B169">
-        <v>2550</v>
+        <v>1970</v>
       </c>
       <c r="C169">
-        <v>2950</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,10 +2781,10 @@
         <v>163</v>
       </c>
       <c r="B170">
-        <v>5600</v>
+        <v>5020</v>
       </c>
       <c r="C170">
-        <v>6150</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,10 +2792,10 @@
         <v>164</v>
       </c>
       <c r="B171">
-        <v>3100</v>
+        <v>2520</v>
       </c>
       <c r="C171">
-        <v>4250</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,10 +2803,10 @@
         <v>164</v>
       </c>
       <c r="B172">
-        <v>2550</v>
+        <v>1970</v>
       </c>
       <c r="C172">
-        <v>3050</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,10 +2814,10 @@
         <v>165</v>
       </c>
       <c r="B173">
-        <v>2150</v>
+        <v>1570</v>
       </c>
       <c r="C173">
-        <v>2300</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,10 +2825,10 @@
         <v>166</v>
       </c>
       <c r="B174">
-        <v>6250</v>
+        <v>5670</v>
       </c>
       <c r="C174">
-        <v>6650</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,10 +2836,10 @@
         <v>167</v>
       </c>
       <c r="B175">
-        <v>2300</v>
+        <v>1720</v>
       </c>
       <c r="C175">
-        <v>3800</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,10 +2847,10 @@
         <v>168</v>
       </c>
       <c r="B176">
-        <v>2000</v>
+        <v>1420</v>
       </c>
       <c r="C176">
-        <v>2450</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,10 +2858,10 @@
         <v>169</v>
       </c>
       <c r="B177">
-        <v>5950</v>
+        <v>5370</v>
       </c>
       <c r="C177">
-        <v>6450</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,10 +2869,10 @@
         <v>169</v>
       </c>
       <c r="B178">
-        <v>5550</v>
+        <v>4970</v>
       </c>
       <c r="C178">
-        <v>7050</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,10 +2880,10 @@
         <v>170</v>
       </c>
       <c r="B179">
-        <v>2280</v>
+        <v>1700</v>
       </c>
       <c r="C179">
-        <v>2750</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,10 +2891,10 @@
         <v>171</v>
       </c>
       <c r="B180">
-        <v>3600</v>
+        <v>3020</v>
       </c>
       <c r="C180">
-        <v>4100</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,10 +2902,10 @@
         <v>172</v>
       </c>
       <c r="B181">
-        <v>2750</v>
+        <v>2170</v>
       </c>
       <c r="C181">
-        <v>3250</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,10 +2913,10 @@
         <v>173</v>
       </c>
       <c r="B182">
-        <v>3100</v>
+        <v>2520</v>
       </c>
       <c r="C182">
-        <v>3450</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,10 +2924,10 @@
         <v>174</v>
       </c>
       <c r="B183">
-        <v>6900</v>
+        <v>6320</v>
       </c>
       <c r="C183">
-        <v>8250</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,10 +2935,10 @@
         <v>175</v>
       </c>
       <c r="B184">
-        <v>7450</v>
+        <v>6870</v>
       </c>
       <c r="C184">
-        <v>8700</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,7 +2946,7 @@
         <v>176</v>
       </c>
       <c r="B185">
-        <v>4650</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2954,10 +2954,10 @@
         <v>177</v>
       </c>
       <c r="B186">
-        <v>3200</v>
+        <v>2620</v>
       </c>
       <c r="C186">
-        <v>3600</v>
+        <v>2830</v>
       </c>
     </row>
   </sheetData>
